--- a/backend/uploads/ExtractedFiles/19.12.23/1250.xlsx
+++ b/backend/uploads/ExtractedFiles/19.12.23/1250.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
   <si>
     <t>Emp_code</t>
   </si>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1030,11 +1030,27 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="A24">
+        <v>1250</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45278</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15.53</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6.23</v>
+      </c>
       <c r="H24" s="6"/>
     </row>
   </sheetData>
